--- a/JJPAC 2020 Political Contributions.xlsx
+++ b/JJPAC 2020 Political Contributions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heathermott/Desktop/JJPAC_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jnj-my.sharepoint.com/personal/hmott12_its_jnj_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC7A486-5C70-FF44-AC44-BFA0245A05EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="8_{490AD324-D258-4FA5-930B-416FD22A7E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{185A92B8-8FA7-44FF-B60C-BC6F5BFC4665}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="560" windowWidth="15480" windowHeight="15920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020 H1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="560">
   <si>
     <t>State</t>
   </si>
@@ -926,9 +926,6 @@
     <t>Sen. John Nichols Boozman (R)</t>
   </si>
   <si>
-    <t>Rep. Peter Ray Aguilar (D)</t>
-  </si>
-  <si>
     <t>Rep. Jimmy Gomez (D)</t>
   </si>
   <si>
@@ -1055,9 +1052,6 @@
     <t>Rep. W. Mark Newton (R)</t>
   </si>
   <si>
-    <t>Rep. David Ralson (R)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rep. Kim Schofield (D) </t>
   </si>
   <si>
@@ -1686,6 +1680,27 @@
   </si>
   <si>
     <t>Veteran who lost an eye</t>
+  </si>
+  <si>
+    <t>Veteran</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Veteran; Anti same-sex, anti-abortion</t>
+  </si>
+  <si>
+    <t>Centerist</t>
+  </si>
+  <si>
+    <t>Rep. Peter Rey Aguilar (D)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Rep. David Ralston (R)</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1802,6 +1817,12 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2144,11 +2165,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView topLeftCell="B96" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.19921875" style="1" bestFit="1" customWidth="1"/>
@@ -2163,12 +2184,12 @@
     <col min="12" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2191,19 +2212,19 @@
         <v>169</v>
       </c>
       <c r="H2" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>541</v>
-      </c>
       <c r="K2" s="10" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2229,13 +2250,13 @@
         <v>278</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2261,13 +2282,13 @@
         <v>278</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2290,16 +2311,16 @@
         <v>2500</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2325,13 +2346,13 @@
         <v>278</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -2357,13 +2378,13 @@
         <v>278</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2386,16 +2407,16 @@
         <v>2500</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2418,16 +2439,16 @@
         <v>7800</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2450,16 +2471,16 @@
         <v>6000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2482,16 +2503,16 @@
         <v>2000</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2517,13 +2538,13 @@
         <v>278</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2546,16 +2567,16 @@
         <v>1500</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>548</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2581,13 +2602,13 @@
         <v>278</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -2610,16 +2631,16 @@
         <v>5000</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -2642,16 +2663,16 @@
         <v>2000</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -2674,16 +2695,16 @@
         <v>1500</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -2706,16 +2727,16 @@
         <v>1500</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2741,13 +2762,13 @@
         <v>278</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -2773,16 +2794,16 @@
         <v>278</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -2808,16 +2829,16 @@
         <v>278</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -2840,16 +2861,16 @@
         <v>2500</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -2872,16 +2893,16 @@
         <v>3000</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -2907,13 +2928,13 @@
         <v>278</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -2936,16 +2957,16 @@
         <v>2000</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -2971,13 +2992,13 @@
         <v>278</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -3000,16 +3021,16 @@
         <v>2500</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>172</v>
       </c>
@@ -3032,19 +3053,19 @@
         <v>6000</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>173</v>
       </c>
@@ -3067,16 +3088,16 @@
         <v>1000</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>548</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>174</v>
       </c>
@@ -3102,13 +3123,13 @@
         <v>278</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>174</v>
       </c>
@@ -3131,16 +3152,16 @@
         <v>5000</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>175</v>
       </c>
@@ -3163,16 +3184,16 @@
         <v>1000</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>175</v>
       </c>
@@ -3195,16 +3216,16 @@
         <v>1000</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>175</v>
       </c>
@@ -3227,16 +3248,16 @@
         <v>5000</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>175</v>
       </c>
@@ -3262,13 +3283,13 @@
         <v>278</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>175</v>
       </c>
@@ -3291,19 +3312,19 @@
         <v>2000</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>175</v>
       </c>
@@ -3329,13 +3350,13 @@
         <v>278</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>176</v>
       </c>
@@ -3358,16 +3379,16 @@
         <v>2000</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>176</v>
       </c>
@@ -3393,13 +3414,13 @@
         <v>278</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>176</v>
       </c>
@@ -3422,16 +3443,16 @@
         <v>1000</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>190</v>
       </c>
@@ -3454,16 +3475,16 @@
         <v>1000</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>190</v>
       </c>
@@ -3486,16 +3507,16 @@
         <v>2000</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>190</v>
       </c>
@@ -3521,13 +3542,13 @@
         <v>278</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>177</v>
       </c>
@@ -3550,16 +3571,16 @@
         <v>2500</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>177</v>
       </c>
@@ -3582,16 +3603,16 @@
         <v>2500</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>177</v>
       </c>
@@ -3614,16 +3635,16 @@
         <v>5000</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>178</v>
       </c>
@@ -3646,16 +3667,16 @@
         <v>5000</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>178</v>
       </c>
@@ -3678,16 +3699,16 @@
         <v>500</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>178</v>
       </c>
@@ -3713,13 +3734,13 @@
         <v>278</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>178</v>
       </c>
@@ -3742,16 +3763,16 @@
         <v>1000</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>178</v>
       </c>
@@ -3774,16 +3795,16 @@
         <v>10000</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>179</v>
       </c>
@@ -3806,16 +3827,16 @@
         <v>3500</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>179</v>
       </c>
@@ -3838,16 +3859,16 @@
         <v>1000</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>180</v>
       </c>
@@ -3873,13 +3894,13 @@
         <v>278</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>181</v>
       </c>
@@ -3902,16 +3923,16 @@
         <v>1000</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>182</v>
       </c>
@@ -3934,16 +3955,16 @@
         <v>2500</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>198</v>
       </c>
@@ -3966,16 +3987,16 @@
         <v>1000</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>199</v>
       </c>
@@ -3998,16 +4019,16 @@
         <v>2000</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>183</v>
       </c>
@@ -4030,16 +4051,16 @@
         <v>1000</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>200</v>
       </c>
@@ -4065,13 +4086,13 @@
         <v>278</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>201</v>
       </c>
@@ -4094,16 +4115,16 @@
         <v>5000</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>201</v>
       </c>
@@ -4126,16 +4147,16 @@
         <v>5000</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>201</v>
       </c>
@@ -4161,13 +4182,13 @@
         <v>278</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>201</v>
       </c>
@@ -4190,16 +4211,16 @@
         <v>1000</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>201</v>
       </c>
@@ -4222,16 +4243,16 @@
         <v>2500</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>201</v>
       </c>
@@ -4254,16 +4275,16 @@
         <v>1500</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>201</v>
       </c>
@@ -4286,16 +4307,16 @@
         <v>2500</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>201</v>
       </c>
@@ -4318,16 +4339,16 @@
         <v>2500</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>207</v>
       </c>
@@ -4350,16 +4371,16 @@
         <v>2500</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>210</v>
       </c>
@@ -4385,13 +4406,13 @@
         <v>278</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>210</v>
       </c>
@@ -4414,16 +4435,16 @@
         <v>2000</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>210</v>
       </c>
@@ -4449,13 +4470,13 @@
         <v>278</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>211</v>
       </c>
@@ -4478,16 +4499,16 @@
         <v>1000</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>211</v>
       </c>
@@ -4510,16 +4531,16 @@
         <v>2000</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>211</v>
       </c>
@@ -4542,16 +4563,16 @@
         <v>1000</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>211</v>
       </c>
@@ -4577,13 +4598,13 @@
         <v>278</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>211</v>
       </c>
@@ -4609,13 +4630,13 @@
         <v>278</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>211</v>
       </c>
@@ -4638,16 +4659,16 @@
         <v>300</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>211</v>
       </c>
@@ -4670,16 +4691,16 @@
         <v>2500</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>211</v>
       </c>
@@ -4702,16 +4723,16 @@
         <v>1000</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>212</v>
       </c>
@@ -4737,13 +4758,13 @@
         <v>278</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>212</v>
       </c>
@@ -4766,16 +4787,16 @@
         <v>1000</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>214</v>
       </c>
@@ -4798,19 +4819,19 @@
         <v>1000</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>216</v>
       </c>
@@ -4833,16 +4854,16 @@
         <v>1500</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>216</v>
       </c>
@@ -4865,16 +4886,16 @@
         <v>1000</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>216</v>
       </c>
@@ -4897,16 +4918,16 @@
         <v>500</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>216</v>
       </c>
@@ -4932,13 +4953,13 @@
         <v>278</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>216</v>
       </c>
@@ -4961,16 +4982,16 @@
         <v>2500</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>218</v>
       </c>
@@ -4993,16 +5014,16 @@
         <v>5000</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>219</v>
       </c>
@@ -5025,16 +5046,16 @@
         <v>1500</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>220</v>
       </c>
@@ -5057,16 +5078,16 @@
         <v>5000</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>220</v>
       </c>
@@ -5089,19 +5110,19 @@
         <v>2000</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>220</v>
       </c>
@@ -5124,16 +5145,16 @@
         <v>2000</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>220</v>
       </c>
@@ -5156,16 +5177,16 @@
         <v>4500</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>220</v>
       </c>
@@ -5188,16 +5209,16 @@
         <v>1000</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>220</v>
       </c>
@@ -5223,13 +5244,13 @@
         <v>278</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>220</v>
       </c>
@@ -5252,16 +5273,16 @@
         <v>1000</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>224</v>
       </c>
@@ -5287,13 +5308,13 @@
         <v>278</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>224</v>
       </c>
@@ -5316,16 +5337,16 @@
         <v>750</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>224</v>
       </c>
@@ -5351,13 +5372,13 @@
         <v>278</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>224</v>
       </c>
@@ -5380,16 +5401,16 @@
         <v>500</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>224</v>
       </c>
@@ -5412,16 +5433,16 @@
         <v>500</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>224</v>
       </c>
@@ -5447,13 +5468,13 @@
         <v>278</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>224</v>
       </c>
@@ -5476,16 +5497,16 @@
         <v>1000</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>224</v>
       </c>
@@ -5508,16 +5529,16 @@
         <v>3500</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>226</v>
       </c>
@@ -5540,16 +5561,16 @@
         <v>1000</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>227</v>
       </c>
@@ -5575,13 +5596,13 @@
         <v>278</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>227</v>
       </c>
@@ -5607,13 +5628,13 @@
         <v>278</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>227</v>
       </c>
@@ -5639,13 +5660,13 @@
         <v>278</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>227</v>
       </c>
@@ -5671,13 +5692,13 @@
         <v>278</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>230</v>
       </c>
@@ -5700,16 +5721,16 @@
         <v>2500</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>232</v>
       </c>
@@ -5732,16 +5753,16 @@
         <v>5000</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>232</v>
       </c>
@@ -5764,16 +5785,16 @@
         <v>15000</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>232</v>
       </c>
@@ -5796,16 +5817,16 @@
         <v>50000</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>232</v>
       </c>
@@ -5828,16 +5849,16 @@
         <v>25000</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>232</v>
       </c>
@@ -5860,16 +5881,16 @@
         <v>15000</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>232</v>
       </c>
@@ -5892,16 +5913,16 @@
         <v>15000</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>232</v>
       </c>
@@ -5924,16 +5945,16 @@
         <v>15000</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>232</v>
       </c>
@@ -5956,16 +5977,16 @@
         <v>5000</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>232</v>
       </c>
@@ -5988,16 +6009,16 @@
         <v>5000</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>232</v>
       </c>
@@ -6020,16 +6041,16 @@
         <v>5000</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>232</v>
       </c>
@@ -6052,16 +6073,16 @@
         <v>5000</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>232</v>
       </c>
@@ -6084,16 +6105,16 @@
         <v>15000</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>232</v>
       </c>
@@ -6116,16 +6137,16 @@
         <v>5000</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>232</v>
       </c>
@@ -6148,16 +6169,16 @@
         <v>25000</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>232</v>
       </c>
@@ -6180,16 +6201,16 @@
         <v>5000</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>232</v>
       </c>
@@ -6212,16 +6233,16 @@
         <v>5000</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>232</v>
       </c>
@@ -6244,16 +6265,16 @@
         <v>50000</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>232</v>
       </c>
@@ -6276,16 +6297,16 @@
         <v>2500</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>232</v>
       </c>
@@ -6308,13 +6329,13 @@
         <v>2500</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -6328,10 +6349,11 @@
   <dimension ref="A2:J299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
@@ -6340,10 +6362,11 @@
     <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.19921875" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.59765625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -6363,19 +6386,19 @@
         <v>169</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6394,8 +6417,17 @@
       <c r="F3" s="14">
         <v>5000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" t="s">
+        <v>543</v>
+      </c>
+      <c r="I3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -6414,8 +6446,17 @@
       <c r="F4" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G4" t="s">
+        <v>544</v>
+      </c>
+      <c r="H4" t="s">
+        <v>541</v>
+      </c>
+      <c r="I4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -6434,8 +6475,14 @@
       <c r="F5" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G5" t="s">
+        <v>544</v>
+      </c>
+      <c r="H5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -6454,8 +6501,17 @@
       <c r="F6" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G6" t="s">
+        <v>544</v>
+      </c>
+      <c r="H6" t="s">
+        <v>541</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -6474,8 +6530,17 @@
       <c r="F7" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H7" t="s">
+        <v>541</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -6494,8 +6559,17 @@
       <c r="F8" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G8" t="s">
+        <v>544</v>
+      </c>
+      <c r="H8" t="s">
+        <v>543</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -6514,8 +6588,17 @@
       <c r="F9" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G9" t="s">
+        <v>544</v>
+      </c>
+      <c r="H9" t="s">
+        <v>541</v>
+      </c>
+      <c r="I9" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -6534,8 +6617,14 @@
       <c r="F10" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G10" t="s">
+        <v>544</v>
+      </c>
+      <c r="H10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -6554,8 +6643,17 @@
       <c r="F11" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G11" t="s">
+        <v>544</v>
+      </c>
+      <c r="H11" t="s">
+        <v>541</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -6574,8 +6672,11 @@
       <c r="F12" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>293</v>
       </c>
@@ -6594,8 +6695,20 @@
       <c r="F13" s="14">
         <v>5000</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" t="s">
+        <v>541</v>
+      </c>
+      <c r="I13" t="s">
+        <v>542</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -6614,8 +6727,20 @@
       <c r="F14" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H14" t="s">
+        <v>541</v>
+      </c>
+      <c r="I14" t="s">
+        <v>542</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -6634,8 +6759,20 @@
       <c r="F15" s="14">
         <v>8500</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G15" t="s">
+        <v>278</v>
+      </c>
+      <c r="H15" t="s">
+        <v>541</v>
+      </c>
+      <c r="I15" t="s">
+        <v>542</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -6654,8 +6791,17 @@
       <c r="F16" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16" t="s">
+        <v>544</v>
+      </c>
+      <c r="H16" t="s">
+        <v>543</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -6674,8 +6820,14 @@
       <c r="F17" s="14">
         <v>4000</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17" t="s">
+        <v>544</v>
+      </c>
+      <c r="H17" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>299</v>
       </c>
@@ -6694,13 +6846,22 @@
       <c r="F18" s="14">
         <v>9000</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18" t="s">
+        <v>544</v>
+      </c>
+      <c r="H18" t="s">
+        <v>541</v>
+      </c>
+      <c r="I18" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>301</v>
+        <v>557</v>
       </c>
       <c r="C19" t="s">
         <v>276</v>
@@ -6714,8 +6875,17 @@
       <c r="F19" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19" t="s">
+        <v>544</v>
+      </c>
+      <c r="H19" t="s">
+        <v>543</v>
+      </c>
+      <c r="I19" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -6734,8 +6904,14 @@
       <c r="F20" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G20" t="s">
+        <v>278</v>
+      </c>
+      <c r="H20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -6754,8 +6930,17 @@
       <c r="F21" s="14">
         <v>5000</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G21" t="s">
+        <v>544</v>
+      </c>
+      <c r="H21" t="s">
+        <v>543</v>
+      </c>
+      <c r="I21" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -6774,8 +6959,17 @@
       <c r="F22" s="14">
         <v>3000</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22" t="s">
+        <v>544</v>
+      </c>
+      <c r="H22" t="s">
+        <v>543</v>
+      </c>
+      <c r="I22" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -6794,8 +6988,17 @@
       <c r="F23" s="14">
         <v>4000</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23" t="s">
+        <v>544</v>
+      </c>
+      <c r="H23" t="s">
+        <v>543</v>
+      </c>
+      <c r="I23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -6814,13 +7017,22 @@
       <c r="F24" s="14">
         <v>8500</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G24" t="s">
+        <v>278</v>
+      </c>
+      <c r="H24" t="s">
+        <v>543</v>
+      </c>
+      <c r="I24" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C25" t="s">
         <v>276</v>
@@ -6834,13 +7046,22 @@
       <c r="F25" s="14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G25" t="s">
+        <v>544</v>
+      </c>
+      <c r="H25" t="s">
+        <v>543</v>
+      </c>
+      <c r="I25" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C26" t="s">
         <v>275</v>
@@ -6854,13 +7075,22 @@
       <c r="F26" s="14">
         <v>5000</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G26" t="s">
+        <v>278</v>
+      </c>
+      <c r="H26" t="s">
+        <v>543</v>
+      </c>
+      <c r="I26" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C27" t="s">
         <v>276</v>
@@ -6874,8 +7104,17 @@
       <c r="F27" s="14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G27" t="s">
+        <v>278</v>
+      </c>
+      <c r="H27" t="s">
+        <v>543</v>
+      </c>
+      <c r="I27" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -6894,13 +7133,22 @@
       <c r="F28" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G28" t="s">
+        <v>544</v>
+      </c>
+      <c r="H28" t="s">
+        <v>541</v>
+      </c>
+      <c r="I28" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C29" t="s">
         <v>276</v>
@@ -6914,13 +7162,22 @@
       <c r="F29" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G29" t="s">
+        <v>278</v>
+      </c>
+      <c r="H29" t="s">
+        <v>541</v>
+      </c>
+      <c r="I29" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C30" t="s">
         <v>275</v>
@@ -6934,8 +7191,17 @@
       <c r="F30" s="14">
         <v>4000</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G30" t="s">
+        <v>544</v>
+      </c>
+      <c r="H30" t="s">
+        <v>543</v>
+      </c>
+      <c r="I30" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -6954,13 +7220,22 @@
       <c r="F31" s="14">
         <v>10500</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G31" t="s">
+        <v>544</v>
+      </c>
+      <c r="H31" t="s">
+        <v>541</v>
+      </c>
+      <c r="I31" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C32" t="s">
         <v>276</v>
@@ -6974,8 +7249,17 @@
       <c r="F32" s="14">
         <v>4500</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G32" t="s">
+        <v>544</v>
+      </c>
+      <c r="H32" t="s">
+        <v>543</v>
+      </c>
+      <c r="I32" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -6994,13 +7278,22 @@
       <c r="F33" s="14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G33" t="s">
+        <v>278</v>
+      </c>
+      <c r="H33" t="s">
+        <v>543</v>
+      </c>
+      <c r="I33" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C34" t="s">
         <v>275</v>
@@ -7014,13 +7307,22 @@
       <c r="F34" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G34" t="s">
+        <v>278</v>
+      </c>
+      <c r="H34" t="s">
+        <v>543</v>
+      </c>
+      <c r="I34" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C35" t="s">
         <v>276</v>
@@ -7034,8 +7336,17 @@
       <c r="F35" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G35" t="s">
+        <v>544</v>
+      </c>
+      <c r="H35" t="s">
+        <v>541</v>
+      </c>
+      <c r="I35" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -7054,13 +7365,22 @@
       <c r="F36" s="14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G36" t="s">
+        <v>278</v>
+      </c>
+      <c r="H36" t="s">
+        <v>543</v>
+      </c>
+      <c r="I36" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>172</v>
       </c>
       <c r="B37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C37" t="s">
         <v>276</v>
@@ -7074,13 +7394,22 @@
       <c r="F37" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G37" t="s">
+        <v>544</v>
+      </c>
+      <c r="H37" t="s">
+        <v>541</v>
+      </c>
+      <c r="I37" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>172</v>
       </c>
       <c r="B38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C38" t="s">
         <v>276</v>
@@ -7094,13 +7423,22 @@
       <c r="F38" s="14">
         <v>6000</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G38" t="s">
+        <v>278</v>
+      </c>
+      <c r="H38" t="s">
+        <v>541</v>
+      </c>
+      <c r="I38" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>174</v>
       </c>
       <c r="B39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C39" t="s">
         <v>276</v>
@@ -7114,8 +7452,17 @@
       <c r="F39" s="14">
         <v>5500</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G39" t="s">
+        <v>544</v>
+      </c>
+      <c r="H39" t="s">
+        <v>541</v>
+      </c>
+      <c r="I39" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -7134,8 +7481,17 @@
       <c r="F40" s="14">
         <v>3000</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G40" t="s">
+        <v>544</v>
+      </c>
+      <c r="H40" t="s">
+        <v>541</v>
+      </c>
+      <c r="I40" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -7154,13 +7510,22 @@
       <c r="F41" s="14">
         <v>5500</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G41" t="s">
+        <v>278</v>
+      </c>
+      <c r="H41" t="s">
+        <v>543</v>
+      </c>
+      <c r="I41" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>175</v>
       </c>
       <c r="B42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C42" t="s">
         <v>275</v>
@@ -7174,13 +7539,22 @@
       <c r="F42" s="14">
         <v>6000</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G42" t="s">
+        <v>544</v>
+      </c>
+      <c r="H42" t="s">
+        <v>543</v>
+      </c>
+      <c r="I42" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>175</v>
       </c>
       <c r="B43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C43" t="s">
         <v>275</v>
@@ -7194,8 +7568,17 @@
       <c r="F43" s="14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G43" t="s">
+        <v>544</v>
+      </c>
+      <c r="H43" t="s">
+        <v>541</v>
+      </c>
+      <c r="I43" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>175</v>
       </c>
@@ -7214,13 +7597,22 @@
       <c r="F44" s="14">
         <v>3000</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G44" t="s">
+        <v>544</v>
+      </c>
+      <c r="H44" t="s">
+        <v>541</v>
+      </c>
+      <c r="I44" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>175</v>
       </c>
       <c r="B45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C45" t="s">
         <v>275</v>
@@ -7234,13 +7626,22 @@
       <c r="F45" s="14">
         <v>7000</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G45" t="s">
+        <v>544</v>
+      </c>
+      <c r="H45" t="s">
+        <v>541</v>
+      </c>
+      <c r="I45" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>175</v>
       </c>
       <c r="B46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C46" t="s">
         <v>276</v>
@@ -7254,8 +7655,17 @@
       <c r="F46" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G46" t="s">
+        <v>278</v>
+      </c>
+      <c r="H46" t="s">
+        <v>541</v>
+      </c>
+      <c r="I46" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>175</v>
       </c>
@@ -7274,8 +7684,17 @@
       <c r="F47" s="14">
         <v>2500</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G47" t="s">
+        <v>278</v>
+      </c>
+      <c r="H47" t="s">
+        <v>543</v>
+      </c>
+      <c r="I47" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -7294,13 +7713,22 @@
       <c r="F48" s="14">
         <v>5000</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G48" t="s">
+        <v>544</v>
+      </c>
+      <c r="H48" t="s">
+        <v>541</v>
+      </c>
+      <c r="I48" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>316</v>
+      </c>
+      <c r="B49" t="s">
         <v>317</v>
-      </c>
-      <c r="B49" t="s">
-        <v>318</v>
       </c>
       <c r="C49" t="s">
         <v>275</v>
@@ -7314,13 +7742,22 @@
       <c r="F49" s="14">
         <v>4000</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G49" t="s">
+        <v>544</v>
+      </c>
+      <c r="H49" t="s">
+        <v>541</v>
+      </c>
+      <c r="I49" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C50" t="s">
         <v>276</v>
@@ -7334,13 +7771,22 @@
       <c r="F50" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G50" t="s">
+        <v>544</v>
+      </c>
+      <c r="H50" t="s">
+        <v>543</v>
+      </c>
+      <c r="I50" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C51" t="s">
         <v>275</v>
@@ -7354,13 +7800,22 @@
       <c r="F51" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G51" t="s">
+        <v>544</v>
+      </c>
+      <c r="H51" t="s">
+        <v>541</v>
+      </c>
+      <c r="I51" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C52" t="s">
         <v>275</v>
@@ -7374,13 +7829,22 @@
       <c r="F52" s="14">
         <v>4000</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G52" t="s">
+        <v>544</v>
+      </c>
+      <c r="H52" t="s">
+        <v>541</v>
+      </c>
+      <c r="I52" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C53" t="s">
         <v>276</v>
@@ -7394,13 +7858,22 @@
       <c r="F53" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G53" t="s">
+        <v>544</v>
+      </c>
+      <c r="H53" t="s">
+        <v>543</v>
+      </c>
+      <c r="I53" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C54" t="s">
         <v>276</v>
@@ -7414,13 +7887,22 @@
       <c r="F54" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G54" t="s">
+        <v>544</v>
+      </c>
+      <c r="H54" t="s">
+        <v>543</v>
+      </c>
+      <c r="I54" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C55" t="s">
         <v>276</v>
@@ -7434,13 +7916,22 @@
       <c r="F55" s="14">
         <v>1500</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G55" t="s">
+        <v>278</v>
+      </c>
+      <c r="H55" t="s">
+        <v>543</v>
+      </c>
+      <c r="I55" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C56" t="s">
         <v>275</v>
@@ -7454,13 +7945,22 @@
       <c r="F56" s="14">
         <v>5000</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G56" t="s">
+        <v>544</v>
+      </c>
+      <c r="H56" t="s">
+        <v>541</v>
+      </c>
+      <c r="I56" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C57" t="s">
         <v>276</v>
@@ -7474,13 +7974,22 @@
       <c r="F57" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G57" t="s">
+        <v>278</v>
+      </c>
+      <c r="H57" t="s">
+        <v>543</v>
+      </c>
+      <c r="I57" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C58" t="s">
         <v>275</v>
@@ -7494,13 +8003,22 @@
       <c r="F58" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G58" t="s">
+        <v>544</v>
+      </c>
+      <c r="H58" t="s">
+        <v>541</v>
+      </c>
+      <c r="I58" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B59" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C59" t="s">
         <v>275</v>
@@ -7514,13 +8032,22 @@
       <c r="F59" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G59" t="s">
+        <v>544</v>
+      </c>
+      <c r="H59" t="s">
+        <v>541</v>
+      </c>
+      <c r="I59" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C60" t="s">
         <v>275</v>
@@ -7534,13 +8061,22 @@
       <c r="F60" s="14">
         <v>2500</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G60" t="s">
+        <v>544</v>
+      </c>
+      <c r="H60" t="s">
+        <v>541</v>
+      </c>
+      <c r="I60" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C61" t="s">
         <v>276</v>
@@ -7554,13 +8090,22 @@
       <c r="F61" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G61" t="s">
+        <v>278</v>
+      </c>
+      <c r="H61" t="s">
+        <v>541</v>
+      </c>
+      <c r="I61" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B62" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C62" t="s">
         <v>275</v>
@@ -7574,13 +8119,22 @@
       <c r="F62" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G62" t="s">
+        <v>544</v>
+      </c>
+      <c r="H62" t="s">
+        <v>541</v>
+      </c>
+      <c r="I62" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B63" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C63" t="s">
         <v>275</v>
@@ -7594,13 +8148,22 @@
       <c r="F63" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G63" t="s">
+        <v>544</v>
+      </c>
+      <c r="H63" t="s">
+        <v>541</v>
+      </c>
+      <c r="I63" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B64" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C64" t="s">
         <v>275</v>
@@ -7614,13 +8177,22 @@
       <c r="F64" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G64" t="s">
+        <v>544</v>
+      </c>
+      <c r="H64" t="s">
+        <v>541</v>
+      </c>
+      <c r="I64" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C65" t="s">
         <v>276</v>
@@ -7634,13 +8206,22 @@
       <c r="F65" s="14">
         <v>250</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G65" t="s">
+        <v>278</v>
+      </c>
+      <c r="H65" t="s">
+        <v>541</v>
+      </c>
+      <c r="I65" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C66" t="s">
         <v>275</v>
@@ -7654,13 +8235,22 @@
       <c r="F66" s="14">
         <v>2500</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G66" t="s">
+        <v>278</v>
+      </c>
+      <c r="H66" t="s">
+        <v>541</v>
+      </c>
+      <c r="I66" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B67" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C67" t="s">
         <v>275</v>
@@ -7674,13 +8264,22 @@
       <c r="F67" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G67" t="s">
+        <v>278</v>
+      </c>
+      <c r="H67" t="s">
+        <v>541</v>
+      </c>
+      <c r="I67" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B68" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C68" t="s">
         <v>276</v>
@@ -7694,13 +8293,22 @@
       <c r="F68" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G68" t="s">
+        <v>544</v>
+      </c>
+      <c r="H68" t="s">
+        <v>543</v>
+      </c>
+      <c r="I68" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B69" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C69" t="s">
         <v>276</v>
@@ -7714,13 +8322,22 @@
       <c r="F69" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G69" t="s">
+        <v>278</v>
+      </c>
+      <c r="H69" t="s">
+        <v>541</v>
+      </c>
+      <c r="I69" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B70" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C70" t="s">
         <v>275</v>
@@ -7734,13 +8351,22 @@
       <c r="F70" s="14">
         <v>250</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G70" t="s">
+        <v>544</v>
+      </c>
+      <c r="H70" t="s">
+        <v>541</v>
+      </c>
+      <c r="I70" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B71" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C71" t="s">
         <v>275</v>
@@ -7754,13 +8380,22 @@
       <c r="F71" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G71" t="s">
+        <v>544</v>
+      </c>
+      <c r="H71" t="s">
+        <v>541</v>
+      </c>
+      <c r="I71" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B72" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C72" t="s">
         <v>275</v>
@@ -7774,13 +8409,22 @@
       <c r="F72" s="14">
         <v>250</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G72" t="s">
+        <v>544</v>
+      </c>
+      <c r="H72" t="s">
+        <v>541</v>
+      </c>
+      <c r="I72" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B73" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C73" t="s">
         <v>275</v>
@@ -7794,13 +8438,22 @@
       <c r="F73" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G73" t="s">
+        <v>278</v>
+      </c>
+      <c r="H73" t="s">
+        <v>541</v>
+      </c>
+      <c r="I73" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C74" t="s">
         <v>275</v>
@@ -7814,13 +8467,22 @@
       <c r="F74" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G74" t="s">
+        <v>544</v>
+      </c>
+      <c r="H74" t="s">
+        <v>541</v>
+      </c>
+      <c r="I74" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B75" t="s">
-        <v>344</v>
+        <v>559</v>
       </c>
       <c r="C75" t="s">
         <v>275</v>
@@ -7834,13 +8496,22 @@
       <c r="F75" s="14">
         <v>1500</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G75" t="s">
+        <v>544</v>
+      </c>
+      <c r="H75" t="s">
+        <v>541</v>
+      </c>
+      <c r="I75" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B76" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C76" t="s">
         <v>276</v>
@@ -7854,13 +8525,22 @@
       <c r="F76" s="14">
         <v>250</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G76" t="s">
+        <v>278</v>
+      </c>
+      <c r="H76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I76" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B77" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C77" t="s">
         <v>275</v>
@@ -7874,13 +8554,22 @@
       <c r="F77" s="14">
         <v>250</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G77" t="s">
+        <v>544</v>
+      </c>
+      <c r="H77" t="s">
+        <v>541</v>
+      </c>
+      <c r="I77" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B78" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C78" t="s">
         <v>275</v>
@@ -7894,13 +8583,22 @@
       <c r="F78" s="14">
         <v>250</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G78" t="s">
+        <v>544</v>
+      </c>
+      <c r="H78" t="s">
+        <v>541</v>
+      </c>
+      <c r="I78" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B79" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C79" t="s">
         <v>276</v>
@@ -7914,13 +8612,22 @@
       <c r="F79" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G79" t="s">
+        <v>278</v>
+      </c>
+      <c r="H79" t="s">
+        <v>543</v>
+      </c>
+      <c r="I79" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B80" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C80" t="s">
         <v>275</v>
@@ -7934,13 +8641,22 @@
       <c r="F80" s="14">
         <v>12500</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G80" t="s">
+        <v>544</v>
+      </c>
+      <c r="H80" t="s">
+        <v>541</v>
+      </c>
+      <c r="I80" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>348</v>
+      </c>
+      <c r="B81" t="s">
         <v>350</v>
-      </c>
-      <c r="B81" t="s">
-        <v>352</v>
       </c>
       <c r="C81" t="s">
         <v>275</v>
@@ -7954,13 +8670,22 @@
       <c r="F81" s="14">
         <v>4500</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G81" t="s">
+        <v>544</v>
+      </c>
+      <c r="H81" t="s">
+        <v>541</v>
+      </c>
+      <c r="I81" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>176</v>
       </c>
       <c r="B82" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C82" t="s">
         <v>275</v>
@@ -7974,13 +8699,22 @@
       <c r="F82" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G82" t="s">
+        <v>544</v>
+      </c>
+      <c r="H82" t="s">
+        <v>541</v>
+      </c>
+      <c r="I82" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>176</v>
       </c>
       <c r="B83" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C83" t="s">
         <v>276</v>
@@ -7994,8 +8728,17 @@
       <c r="F83" s="14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G83" t="s">
+        <v>544</v>
+      </c>
+      <c r="H83" t="s">
+        <v>543</v>
+      </c>
+      <c r="I83" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>176</v>
       </c>
@@ -8014,13 +8757,22 @@
       <c r="F84" s="14">
         <v>7000</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G84" t="s">
+        <v>278</v>
+      </c>
+      <c r="H84" t="s">
+        <v>543</v>
+      </c>
+      <c r="I84" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>176</v>
       </c>
       <c r="B85" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C85" t="s">
         <v>275</v>
@@ -8034,8 +8786,17 @@
       <c r="F85" s="14">
         <v>3000</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G85" t="s">
+        <v>544</v>
+      </c>
+      <c r="H85" t="s">
+        <v>541</v>
+      </c>
+      <c r="I85" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>176</v>
       </c>
@@ -8054,13 +8815,22 @@
       <c r="F86" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G86" t="s">
+        <v>544</v>
+      </c>
+      <c r="H86" t="s">
+        <v>541</v>
+      </c>
+      <c r="I86" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>176</v>
       </c>
       <c r="B87" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C87" t="s">
         <v>276</v>
@@ -8074,13 +8844,22 @@
       <c r="F87" s="14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G87" t="s">
+        <v>544</v>
+      </c>
+      <c r="H87" t="s">
+        <v>541</v>
+      </c>
+      <c r="I87" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>176</v>
       </c>
       <c r="B88" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C88" t="s">
         <v>276</v>
@@ -8094,13 +8873,22 @@
       <c r="F88" s="14">
         <v>1500</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G88" t="s">
+        <v>544</v>
+      </c>
+      <c r="H88" t="s">
+        <v>543</v>
+      </c>
+      <c r="I88" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>176</v>
       </c>
       <c r="B89" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C89" t="s">
         <v>276</v>
@@ -8114,13 +8902,22 @@
       <c r="F89" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G89" t="s">
+        <v>278</v>
+      </c>
+      <c r="H89" t="s">
+        <v>543</v>
+      </c>
+      <c r="I89" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C90" t="s">
         <v>276</v>
@@ -8134,13 +8931,22 @@
       <c r="F90" s="14">
         <v>1500</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G90" t="s">
+        <v>544</v>
+      </c>
+      <c r="H90" t="s">
+        <v>543</v>
+      </c>
+      <c r="I90" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>176</v>
       </c>
       <c r="B91" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C91" t="s">
         <v>276</v>
@@ -8154,13 +8960,22 @@
       <c r="F91" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G91" t="s">
+        <v>278</v>
+      </c>
+      <c r="H91" t="s">
+        <v>541</v>
+      </c>
+      <c r="I91" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>176</v>
       </c>
       <c r="B92" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C92" t="s">
         <v>276</v>
@@ -8174,13 +8989,22 @@
       <c r="F92" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G92" t="s">
+        <v>544</v>
+      </c>
+      <c r="H92" t="s">
+        <v>543</v>
+      </c>
+      <c r="I92" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>176</v>
       </c>
       <c r="B93" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C93" t="s">
         <v>276</v>
@@ -8194,13 +9018,22 @@
       <c r="F93" s="14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G93" t="s">
+        <v>278</v>
+      </c>
+      <c r="H93" t="s">
+        <v>541</v>
+      </c>
+      <c r="I93" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>190</v>
       </c>
       <c r="B94" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C94" t="s">
         <v>275</v>
@@ -8214,13 +9047,22 @@
       <c r="F94" s="14">
         <v>3000</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G94" t="s">
+        <v>544</v>
+      </c>
+      <c r="H94" t="s">
+        <v>541</v>
+      </c>
+      <c r="I94" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>190</v>
       </c>
       <c r="B95" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C95" t="s">
         <v>275</v>
@@ -8234,8 +9076,17 @@
       <c r="F95" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G95" t="s">
+        <v>544</v>
+      </c>
+      <c r="H95" t="s">
+        <v>541</v>
+      </c>
+      <c r="I95" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -8254,13 +9105,22 @@
       <c r="F96" s="14">
         <v>5500</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G96" t="s">
+        <v>544</v>
+      </c>
+      <c r="H96" t="s">
+        <v>541</v>
+      </c>
+      <c r="I96" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>190</v>
       </c>
       <c r="B97" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C97" t="s">
         <v>276</v>
@@ -8274,8 +9134,17 @@
       <c r="F97" s="14">
         <v>3000</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G97" t="s">
+        <v>544</v>
+      </c>
+      <c r="H97" t="s">
+        <v>541</v>
+      </c>
+      <c r="I97" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>190</v>
       </c>
@@ -8294,13 +9163,22 @@
       <c r="F98" s="14">
         <v>3500</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G98" t="s">
+        <v>278</v>
+      </c>
+      <c r="H98" t="s">
+        <v>541</v>
+      </c>
+      <c r="I98" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B99" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C99" t="s">
         <v>275</v>
@@ -8314,13 +9192,22 @@
       <c r="F99" s="14">
         <v>5000</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G99" t="s">
+        <v>544</v>
+      </c>
+      <c r="H99" t="s">
+        <v>541</v>
+      </c>
+      <c r="I99" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>364</v>
+      </c>
+      <c r="B100" t="s">
         <v>366</v>
-      </c>
-      <c r="B100" t="s">
-        <v>368</v>
       </c>
       <c r="C100" t="s">
         <v>275</v>
@@ -8335,12 +9222,12 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B101" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C101" t="s">
         <v>275</v>
@@ -8355,12 +9242,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B102" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C102" t="s">
         <v>276</v>
@@ -8375,7 +9262,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>177</v>
       </c>
@@ -8395,12 +9282,12 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>177</v>
       </c>
       <c r="B104" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C104" t="s">
         <v>275</v>
@@ -8415,7 +9302,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>177</v>
       </c>
@@ -8435,12 +9322,12 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>177</v>
       </c>
       <c r="B106" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C106" t="s">
         <v>275</v>
@@ -8455,12 +9342,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>177</v>
       </c>
       <c r="B107" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C107" t="s">
         <v>275</v>
@@ -8475,12 +9362,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>177</v>
       </c>
       <c r="B108" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C108" t="s">
         <v>275</v>
@@ -8495,12 +9382,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>177</v>
       </c>
       <c r="B109" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C109" t="s">
         <v>275</v>
@@ -8515,7 +9402,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>178</v>
       </c>
@@ -8535,12 +9422,12 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>178</v>
       </c>
       <c r="B111" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C111" t="s">
         <v>276</v>
@@ -8555,12 +9442,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>178</v>
       </c>
       <c r="B112" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C112" t="s">
         <v>275</v>
@@ -8575,12 +9462,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>178</v>
       </c>
       <c r="B113" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C113" t="s">
         <v>275</v>
@@ -8595,12 +9482,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>178</v>
       </c>
       <c r="B114" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C114" t="s">
         <v>275</v>
@@ -8615,12 +9502,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>178</v>
       </c>
       <c r="B115" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C115" t="s">
         <v>275</v>
@@ -8635,12 +9522,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>178</v>
       </c>
       <c r="B116" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C116" t="s">
         <v>275</v>
@@ -8655,12 +9542,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B117" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C117" t="s">
         <v>275</v>
@@ -8675,12 +9562,12 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B118" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C118" t="s">
         <v>276</v>
@@ -8695,12 +9582,12 @@
         <v>800</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>382</v>
+      </c>
+      <c r="B119" t="s">
         <v>384</v>
-      </c>
-      <c r="B119" t="s">
-        <v>386</v>
       </c>
       <c r="C119" t="s">
         <v>276</v>
@@ -8715,12 +9602,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B120" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C120" t="s">
         <v>276</v>
@@ -8735,12 +9622,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B121" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C121" t="s">
         <v>276</v>
@@ -8755,12 +9642,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B122" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C122" t="s">
         <v>276</v>
@@ -8775,12 +9662,12 @@
         <v>750</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B123" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C123" t="s">
         <v>276</v>
@@ -8795,12 +9682,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B124" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C124" t="s">
         <v>275</v>
@@ -8815,12 +9702,12 @@
         <v>550</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B125" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C125" t="s">
         <v>275</v>
@@ -8835,12 +9722,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B126" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C126" t="s">
         <v>276</v>
@@ -8855,12 +9742,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B127" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C127" t="s">
         <v>276</v>
@@ -8875,12 +9762,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B128" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C128" t="s">
         <v>276</v>
@@ -8895,12 +9782,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B129" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C129" t="s">
         <v>276</v>
@@ -8915,12 +9802,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B130" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C130" t="s">
         <v>276</v>
@@ -8935,12 +9822,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B131" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C131" t="s">
         <v>276</v>
@@ -8955,12 +9842,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B132" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C132" t="s">
         <v>276</v>
@@ -8975,12 +9862,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B133" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C133" t="s">
         <v>275</v>
@@ -8995,12 +9882,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B134" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C134" t="s">
         <v>276</v>
@@ -9015,12 +9902,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B135" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C135" t="s">
         <v>276</v>
@@ -9035,12 +9922,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B136" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C136" t="s">
         <v>276</v>
@@ -9055,12 +9942,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B137" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C137" t="s">
         <v>276</v>
@@ -9075,12 +9962,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B138" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C138" t="s">
         <v>276</v>
@@ -9095,12 +9982,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B139" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C139" t="s">
         <v>275</v>
@@ -9115,12 +10002,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B140" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C140" t="s">
         <v>276</v>
@@ -9135,12 +10022,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B141" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C141" t="s">
         <v>276</v>
@@ -9155,12 +10042,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B142" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C142" t="s">
         <v>276</v>
@@ -9175,12 +10062,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B143" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C143" t="s">
         <v>276</v>
@@ -9195,12 +10082,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B144" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C144" t="s">
         <v>276</v>
@@ -9215,12 +10102,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B145" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C145" t="s">
         <v>275</v>
@@ -9235,12 +10122,12 @@
         <v>550</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B146" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C146" t="s">
         <v>276</v>
@@ -9255,12 +10142,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B147" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C147" t="s">
         <v>276</v>
@@ -9275,12 +10162,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B148" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C148" t="s">
         <v>276</v>
@@ -9295,12 +10182,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B149" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C149" t="s">
         <v>276</v>
@@ -9315,12 +10202,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B150" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C150" t="s">
         <v>275</v>
@@ -9335,12 +10222,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B151" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C151" t="s">
         <v>276</v>
@@ -9355,12 +10242,12 @@
         <v>750</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B152" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C152" t="s">
         <v>275</v>
@@ -9375,12 +10262,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B153" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C153" t="s">
         <v>275</v>
@@ -9395,12 +10282,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B154" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C154" t="s">
         <v>276</v>
@@ -9415,7 +10302,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>179</v>
       </c>
@@ -9435,12 +10322,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>179</v>
       </c>
       <c r="B156" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C156" t="s">
         <v>275</v>
@@ -9455,12 +10342,12 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>179</v>
       </c>
       <c r="B157" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C157" t="s">
         <v>276</v>
@@ -9475,7 +10362,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>179</v>
       </c>
@@ -9495,7 +10382,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>181</v>
       </c>
@@ -9515,12 +10402,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B160" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C160" t="s">
         <v>275</v>
@@ -9535,12 +10422,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>423</v>
+      </c>
+      <c r="B161" t="s">
         <v>425</v>
-      </c>
-      <c r="B161" t="s">
-        <v>427</v>
       </c>
       <c r="C161" t="s">
         <v>275</v>
@@ -9555,7 +10442,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -9575,12 +10462,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>182</v>
       </c>
       <c r="B163" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C163" t="s">
         <v>276</v>
@@ -9595,12 +10482,12 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>183</v>
       </c>
       <c r="B164" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C164" t="s">
         <v>275</v>
@@ -9615,7 +10502,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>183</v>
       </c>
@@ -9635,7 +10522,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>210</v>
       </c>
@@ -9655,7 +10542,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>210</v>
       </c>
@@ -9675,7 +10562,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>210</v>
       </c>
@@ -9695,12 +10582,12 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>200</v>
       </c>
       <c r="B169" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C169" t="s">
         <v>276</v>
@@ -9715,12 +10602,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>200</v>
       </c>
       <c r="B170" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C170" t="s">
         <v>276</v>
@@ -9735,7 +10622,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>200</v>
       </c>
@@ -9755,7 +10642,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>201</v>
       </c>
@@ -9775,7 +10662,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>201</v>
       </c>
@@ -9795,7 +10682,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>201</v>
       </c>
@@ -9815,7 +10702,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>201</v>
       </c>
@@ -9835,7 +10722,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>201</v>
       </c>
@@ -9855,12 +10742,12 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>201</v>
       </c>
       <c r="B177" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C177" t="s">
         <v>276</v>
@@ -9875,7 +10762,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>201</v>
       </c>
@@ -9895,12 +10782,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>201</v>
       </c>
       <c r="B179" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C179" t="s">
         <v>275</v>
@@ -9915,12 +10802,12 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>201</v>
       </c>
       <c r="B180" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C180" t="s">
         <v>276</v>
@@ -9935,7 +10822,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>207</v>
       </c>
@@ -9955,12 +10842,12 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>207</v>
       </c>
       <c r="B182" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C182" t="s">
         <v>276</v>
@@ -9975,12 +10862,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>207</v>
       </c>
       <c r="B183" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C183" t="s">
         <v>275</v>
@@ -9995,12 +10882,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>207</v>
       </c>
       <c r="B184" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C184" t="s">
         <v>276</v>
@@ -10015,12 +10902,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>207</v>
       </c>
       <c r="B185" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C185" t="s">
         <v>276</v>
@@ -10035,12 +10922,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>211</v>
       </c>
       <c r="B186" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C186" t="s">
         <v>276</v>
@@ -10055,12 +10942,12 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>211</v>
       </c>
       <c r="B187" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C187" t="s">
         <v>276</v>
@@ -10075,12 +10962,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>211</v>
       </c>
       <c r="B188" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C188" t="s">
         <v>276</v>
@@ -10095,7 +10982,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -10115,12 +11002,12 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>211</v>
       </c>
       <c r="B190" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C190" t="s">
         <v>276</v>
@@ -10135,12 +11022,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>198</v>
       </c>
       <c r="B191" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C191" t="s">
         <v>275</v>
@@ -10155,12 +11042,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>198</v>
       </c>
       <c r="B192" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C192" t="s">
         <v>275</v>
@@ -10175,12 +11062,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>198</v>
       </c>
       <c r="B193" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C193" t="s">
         <v>275</v>
@@ -10195,12 +11082,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>198</v>
       </c>
       <c r="B194" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C194" t="s">
         <v>275</v>
@@ -10215,7 +11102,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>199</v>
       </c>
@@ -10235,12 +11122,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>212</v>
       </c>
       <c r="B196" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C196" t="s">
         <v>275</v>
@@ -10255,7 +11142,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>212</v>
       </c>
@@ -10275,12 +11162,12 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>212</v>
       </c>
       <c r="B198" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C198" t="s">
         <v>275</v>
@@ -10295,7 +11182,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>212</v>
       </c>
@@ -10315,12 +11202,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>212</v>
       </c>
       <c r="B200" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C200" t="s">
         <v>275</v>
@@ -10335,12 +11222,12 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>212</v>
       </c>
       <c r="B201" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C201" t="s">
         <v>275</v>
@@ -10355,12 +11242,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>212</v>
       </c>
       <c r="B202" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C202" t="s">
         <v>275</v>
@@ -10375,12 +11262,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>212</v>
       </c>
       <c r="B203" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C203" t="s">
         <v>275</v>
@@ -10395,12 +11282,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>212</v>
       </c>
       <c r="B204" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C204" t="s">
         <v>275</v>
@@ -10415,12 +11302,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>212</v>
       </c>
       <c r="B205" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C205" t="s">
         <v>275</v>
@@ -10435,12 +11322,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>212</v>
       </c>
       <c r="B206" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C206" t="s">
         <v>275</v>
@@ -10455,12 +11342,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>212</v>
       </c>
       <c r="B207" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C207" t="s">
         <v>276</v>
@@ -10475,12 +11362,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>212</v>
       </c>
       <c r="B208" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C208" t="s">
         <v>275</v>
@@ -10495,12 +11382,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C209" t="s">
         <v>275</v>
@@ -10515,12 +11402,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C210" t="s">
         <v>276</v>
@@ -10535,12 +11422,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C211" t="s">
         <v>275</v>
@@ -10555,12 +11442,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C212" t="s">
         <v>275</v>
@@ -10575,12 +11462,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C213" t="s">
         <v>275</v>
@@ -10595,12 +11482,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C214" t="s">
         <v>275</v>
@@ -10615,12 +11502,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C215" t="s">
         <v>275</v>
@@ -10635,12 +11522,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>212</v>
       </c>
       <c r="B216" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C216" t="s">
         <v>275</v>
@@ -10655,12 +11542,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>212</v>
       </c>
       <c r="B217" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C217" t="s">
         <v>275</v>
@@ -10675,12 +11562,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>212</v>
       </c>
       <c r="B218" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C218" t="s">
         <v>275</v>
@@ -10695,12 +11582,12 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>212</v>
       </c>
       <c r="B219" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C219" t="s">
         <v>275</v>
@@ -10715,12 +11602,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>212</v>
       </c>
       <c r="B220" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C220" t="s">
         <v>275</v>
@@ -10735,12 +11622,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>212</v>
       </c>
       <c r="B221" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C221" t="s">
         <v>275</v>
@@ -10755,12 +11642,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>212</v>
       </c>
       <c r="B222" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C222" t="s">
         <v>275</v>
@@ -10775,12 +11662,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>212</v>
       </c>
       <c r="B223" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C223" t="s">
         <v>275</v>
@@ -10795,12 +11682,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>212</v>
       </c>
       <c r="B224" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C224" t="s">
         <v>276</v>
@@ -10815,12 +11702,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>212</v>
       </c>
       <c r="B225" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C225" t="s">
         <v>275</v>
@@ -10835,12 +11722,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>214</v>
       </c>
       <c r="B226" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C226" t="s">
         <v>275</v>
@@ -10855,12 +11742,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B227" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C227" t="s">
         <v>276</v>
@@ -10875,12 +11762,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
+        <v>474</v>
+      </c>
+      <c r="B228" t="s">
         <v>476</v>
-      </c>
-      <c r="B228" t="s">
-        <v>478</v>
       </c>
       <c r="C228" t="s">
         <v>276</v>
@@ -10895,7 +11782,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>216</v>
       </c>
@@ -10915,12 +11802,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>216</v>
       </c>
       <c r="B230" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C230" t="s">
         <v>275</v>
@@ -10935,12 +11822,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>216</v>
       </c>
       <c r="B231" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C231" t="s">
         <v>276</v>
@@ -10955,12 +11842,12 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>216</v>
       </c>
       <c r="B232" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C232" t="s">
         <v>276</v>
@@ -10975,12 +11862,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>216</v>
       </c>
       <c r="B233" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C233" t="s">
         <v>276</v>
@@ -10995,12 +11882,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>216</v>
       </c>
       <c r="B234" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C234" t="s">
         <v>275</v>
@@ -11015,12 +11902,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>216</v>
       </c>
       <c r="B235" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C235" t="s">
         <v>275</v>
@@ -11035,7 +11922,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>216</v>
       </c>
@@ -11055,15 +11942,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>216</v>
       </c>
       <c r="B237" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C237" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D237" t="s">
         <v>31</v>
@@ -11075,12 +11962,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>216</v>
       </c>
       <c r="B238" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C238" t="s">
         <v>276</v>
@@ -11095,12 +11982,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>216</v>
       </c>
       <c r="B239" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C239" t="s">
         <v>275</v>
@@ -11115,12 +12002,12 @@
         <v>750</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>216</v>
       </c>
       <c r="B240" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C240" t="s">
         <v>276</v>
@@ -11135,12 +12022,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>216</v>
       </c>
       <c r="B241" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C241" t="s">
         <v>275</v>
@@ -11155,12 +12042,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>216</v>
       </c>
       <c r="B242" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C242" t="s">
         <v>276</v>
@@ -11175,12 +12062,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>216</v>
       </c>
       <c r="B243" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C243" t="s">
         <v>275</v>
@@ -11195,12 +12082,12 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>216</v>
       </c>
       <c r="B244" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C244" t="s">
         <v>276</v>
@@ -11215,12 +12102,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>216</v>
       </c>
       <c r="B245" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C245" t="s">
         <v>275</v>
@@ -11235,12 +12122,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>216</v>
       </c>
       <c r="B246" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C246" t="s">
         <v>275</v>
@@ -11255,12 +12142,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>216</v>
       </c>
       <c r="B247" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C247" t="s">
         <v>275</v>
@@ -11275,12 +12162,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>216</v>
       </c>
       <c r="B248" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C248" t="s">
         <v>276</v>
@@ -11295,12 +12182,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>216</v>
       </c>
       <c r="B249" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C249" t="s">
         <v>276</v>
@@ -11315,12 +12202,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>216</v>
       </c>
       <c r="B250" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C250" t="s">
         <v>275</v>
@@ -11335,12 +12222,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>216</v>
       </c>
       <c r="B251" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C251" t="s">
         <v>276</v>
@@ -11355,12 +12242,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>216</v>
       </c>
       <c r="B252" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C252" t="s">
         <v>276</v>
@@ -11375,12 +12262,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>216</v>
       </c>
       <c r="B253" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C253" t="s">
         <v>276</v>
@@ -11395,12 +12282,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>216</v>
       </c>
       <c r="B254" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C254" t="s">
         <v>275</v>
@@ -11415,12 +12302,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>216</v>
       </c>
       <c r="B255" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C255" t="s">
         <v>275</v>
@@ -11435,12 +12322,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>216</v>
       </c>
       <c r="B256" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C256" t="s">
         <v>275</v>
@@ -11455,12 +12342,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>218</v>
       </c>
       <c r="B257" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C257" t="s">
         <v>275</v>
@@ -11475,12 +12362,12 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>218</v>
       </c>
       <c r="B258" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C258" t="s">
         <v>276</v>
@@ -11495,12 +12382,12 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>218</v>
       </c>
       <c r="B259" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C259" t="s">
         <v>275</v>
@@ -11515,12 +12402,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>218</v>
       </c>
       <c r="B260" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C260" t="s">
         <v>275</v>
@@ -11535,7 +12422,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>219</v>
       </c>
@@ -11555,12 +12442,12 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>220</v>
       </c>
       <c r="B262" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C262" t="s">
         <v>275</v>
@@ -11575,7 +12462,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>220</v>
       </c>
@@ -11595,7 +12482,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>220</v>
       </c>
@@ -11615,7 +12502,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>220</v>
       </c>
@@ -11635,12 +12522,12 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>220</v>
       </c>
       <c r="B266" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C266" t="s">
         <v>276</v>
@@ -11655,12 +12542,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>220</v>
       </c>
       <c r="B267" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C267" t="s">
         <v>276</v>
@@ -11675,12 +12562,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>220</v>
       </c>
       <c r="B268" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C268" t="s">
         <v>275</v>
@@ -11695,7 +12582,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>220</v>
       </c>
@@ -11715,12 +12602,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>220</v>
       </c>
       <c r="B270" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C270" t="s">
         <v>275</v>
@@ -11735,12 +12622,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>220</v>
       </c>
       <c r="B271" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C271" t="s">
         <v>276</v>
@@ -11755,12 +12642,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>220</v>
       </c>
       <c r="B272" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C272" t="s">
         <v>275</v>
@@ -11775,12 +12662,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>220</v>
       </c>
       <c r="B273" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C273" t="s">
         <v>275</v>
@@ -11795,12 +12682,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>220</v>
       </c>
       <c r="B274" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C274" t="s">
         <v>276</v>
@@ -11815,12 +12702,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>220</v>
       </c>
       <c r="B275" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C275" t="s">
         <v>275</v>
@@ -11835,7 +12722,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>224</v>
       </c>
@@ -11855,12 +12742,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>224</v>
       </c>
       <c r="B277" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C277" t="s">
         <v>275</v>
@@ -11875,7 +12762,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>224</v>
       </c>
@@ -11895,12 +12782,12 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>224</v>
       </c>
       <c r="B279" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C279" t="s">
         <v>276</v>
@@ -11915,7 +12802,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>224</v>
       </c>
@@ -11935,12 +12822,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>224</v>
       </c>
       <c r="B281" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C281" t="s">
         <v>276</v>
@@ -11955,12 +12842,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>224</v>
       </c>
       <c r="B282" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C282" t="s">
         <v>276</v>
@@ -11975,7 +12862,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>224</v>
       </c>
@@ -11995,12 +12882,12 @@
         <v>750</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>224</v>
       </c>
       <c r="B284" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C284" t="s">
         <v>276</v>
@@ -12015,7 +12902,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>224</v>
       </c>
@@ -12035,12 +12922,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B286" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C286" t="s">
         <v>276</v>
@@ -12055,12 +12942,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
+        <v>523</v>
+      </c>
+      <c r="B287" t="s">
         <v>525</v>
-      </c>
-      <c r="B287" t="s">
-        <v>527</v>
       </c>
       <c r="C287" t="s">
         <v>276</v>
@@ -12075,12 +12962,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B288" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C288" t="s">
         <v>275</v>
@@ -12095,12 +12982,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B289" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C289" t="s">
         <v>276</v>
@@ -12115,12 +13002,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>227</v>
       </c>
       <c r="B290" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C290" t="s">
         <v>276</v>
@@ -12135,7 +13022,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>227</v>
       </c>
@@ -12155,7 +13042,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>227</v>
       </c>
@@ -12175,12 +13062,12 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>227</v>
       </c>
       <c r="B293" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C293" t="s">
         <v>276</v>
@@ -12195,7 +13082,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>227</v>
       </c>
@@ -12215,12 +13102,12 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B295" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C295" t="s">
         <v>275</v>
@@ -12235,12 +13122,12 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
+        <v>530</v>
+      </c>
+      <c r="B296" t="s">
         <v>532</v>
-      </c>
-      <c r="B296" t="s">
-        <v>534</v>
       </c>
       <c r="C296" t="s">
         <v>276</v>
@@ -12255,12 +13142,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>230</v>
       </c>
       <c r="B297" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C297" t="s">
         <v>276</v>
@@ -12275,12 +13162,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B298" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C298" t="s">
         <v>275</v>
@@ -12295,12 +13182,12 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
+        <v>534</v>
+      </c>
+      <c r="B299" t="s">
         <v>536</v>
-      </c>
-      <c r="B299" t="s">
-        <v>538</v>
       </c>
       <c r="C299" t="s">
         <v>275</v>

--- a/JJPAC 2020 Political Contributions.xlsx
+++ b/JJPAC 2020 Political Contributions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heathmo/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85936B6-1588-924E-96AC-F0C06BB87079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FD59EC-E3A0-A34E-A8D0-F3D6F6D07741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020 H1" sheetId="1" r:id="rId1"/>
@@ -1900,7 +1900,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6406,7 +6406,7 @@
   <dimension ref="A2:M299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>

--- a/JJPAC 2020 Political Contributions.xlsx
+++ b/JJPAC 2020 Political Contributions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heathmo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kenvue-my.sharepoint.com/personal/HMott12_kenvue_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FD59EC-E3A0-A34E-A8D0-F3D6F6D07741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{7F1803A0-A14A-41A3-BDFE-E715F5C4380B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBA7B460-324E-4F78-AB4E-0FCE28BEDEFA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="4790" windowWidth="19380" windowHeight="6580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020 H1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="576">
   <si>
     <t>State</t>
   </si>
@@ -1749,6 +1749,9 @@
   </si>
   <si>
     <t>Con</t>
+  </si>
+  <si>
+    <t>Anti</t>
   </si>
 </sst>
 </file>
@@ -2226,7 +2229,7 @@
       <selection activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.19921875" style="1" bestFit="1" customWidth="1"/>
@@ -2241,12 +2244,12 @@
     <col min="12" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2313,7 +2316,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2409,7 +2412,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -2441,7 +2444,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2505,7 +2508,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2537,7 +2540,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -2729,7 +2732,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -2761,7 +2764,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -2793,7 +2796,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -2860,7 +2863,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -2959,7 +2962,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -3023,7 +3026,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -3087,7 +3090,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>172</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>173</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>174</v>
       </c>
@@ -3186,7 +3189,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>174</v>
       </c>
@@ -3218,7 +3221,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>175</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>175</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>175</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>175</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>175</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>175</v>
       </c>
@@ -3413,7 +3416,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>176</v>
       </c>
@@ -3445,7 +3448,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>176</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>176</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>190</v>
       </c>
@@ -3541,7 +3544,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>190</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>190</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>177</v>
       </c>
@@ -3637,7 +3640,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>177</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>177</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>178</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>178</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>178</v>
       </c>
@@ -3797,7 +3800,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>178</v>
       </c>
@@ -3829,7 +3832,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>178</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>179</v>
       </c>
@@ -3893,7 +3896,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>179</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>180</v>
       </c>
@@ -3957,7 +3960,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>181</v>
       </c>
@@ -3989,7 +3992,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>182</v>
       </c>
@@ -4021,7 +4024,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>198</v>
       </c>
@@ -4053,7 +4056,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>199</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>183</v>
       </c>
@@ -4117,7 +4120,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>200</v>
       </c>
@@ -4149,7 +4152,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>201</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>201</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>201</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>201</v>
       </c>
@@ -4277,7 +4280,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>201</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>201</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>201</v>
       </c>
@@ -4373,7 +4376,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>201</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>207</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>210</v>
       </c>
@@ -4469,7 +4472,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>210</v>
       </c>
@@ -4501,7 +4504,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>210</v>
       </c>
@@ -4533,7 +4536,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>211</v>
       </c>
@@ -4565,7 +4568,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>211</v>
       </c>
@@ -4597,7 +4600,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>211</v>
       </c>
@@ -4629,7 +4632,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>211</v>
       </c>
@@ -4661,7 +4664,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>211</v>
       </c>
@@ -4693,7 +4696,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>211</v>
       </c>
@@ -4725,7 +4728,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>211</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>211</v>
       </c>
@@ -4789,7 +4792,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>212</v>
       </c>
@@ -4821,7 +4824,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>212</v>
       </c>
@@ -4853,7 +4856,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>214</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>216</v>
       </c>
@@ -4920,7 +4923,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>216</v>
       </c>
@@ -4952,7 +4955,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>216</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>216</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>216</v>
       </c>
@@ -5048,7 +5051,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>218</v>
       </c>
@@ -5080,7 +5083,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>219</v>
       </c>
@@ -5112,7 +5115,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>220</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>220</v>
       </c>
@@ -5179,7 +5182,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>220</v>
       </c>
@@ -5211,7 +5214,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>220</v>
       </c>
@@ -5243,7 +5246,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>220</v>
       </c>
@@ -5275,7 +5278,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>220</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>220</v>
       </c>
@@ -5339,7 +5342,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>224</v>
       </c>
@@ -5371,7 +5374,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>224</v>
       </c>
@@ -5403,7 +5406,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>224</v>
       </c>
@@ -5435,7 +5438,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>224</v>
       </c>
@@ -5467,7 +5470,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>224</v>
       </c>
@@ -5499,7 +5502,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>224</v>
       </c>
@@ -5531,7 +5534,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>224</v>
       </c>
@@ -5563,7 +5566,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>224</v>
       </c>
@@ -5595,7 +5598,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>226</v>
       </c>
@@ -5627,7 +5630,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>227</v>
       </c>
@@ -5659,7 +5662,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>227</v>
       </c>
@@ -5691,7 +5694,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>227</v>
       </c>
@@ -5723,7 +5726,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>227</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>230</v>
       </c>
@@ -5787,7 +5790,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>232</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>232</v>
       </c>
@@ -5851,7 +5854,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>232</v>
       </c>
@@ -5883,7 +5886,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>232</v>
       </c>
@@ -5915,7 +5918,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>232</v>
       </c>
@@ -5947,7 +5950,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>232</v>
       </c>
@@ -5979,7 +5982,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>232</v>
       </c>
@@ -6011,7 +6014,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>232</v>
       </c>
@@ -6043,7 +6046,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>232</v>
       </c>
@@ -6075,7 +6078,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>232</v>
       </c>
@@ -6107,7 +6110,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>232</v>
       </c>
@@ -6139,7 +6142,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>232</v>
       </c>
@@ -6171,7 +6174,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>232</v>
       </c>
@@ -6203,7 +6206,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>232</v>
       </c>
@@ -6235,7 +6238,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>232</v>
       </c>
@@ -6267,7 +6270,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>232</v>
       </c>
@@ -6299,7 +6302,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>232</v>
       </c>
@@ -6331,7 +6334,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>232</v>
       </c>
@@ -6363,7 +6366,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>232</v>
       </c>
@@ -6405,29 +6408,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DBD5D7-FE90-4EB9-8308-5588368B3884}">
   <dimension ref="A2:M299"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="32.19921875" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -6468,7 +6471,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6506,7 +6509,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -6535,7 +6538,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -6564,7 +6567,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -6596,7 +6599,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -6631,7 +6634,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -6666,7 +6669,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -6695,7 +6698,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -6756,7 +6759,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -6785,7 +6788,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>293</v>
       </c>
@@ -6817,7 +6820,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -6855,7 +6858,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -6896,7 +6899,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -6934,7 +6937,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -6969,7 +6972,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>299</v>
       </c>
@@ -7007,7 +7010,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -7042,7 +7045,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -7080,7 +7083,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -7118,7 +7121,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -7156,7 +7159,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -7184,8 +7187,11 @@
       <c r="I23" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J23" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -7213,8 +7219,17 @@
       <c r="I24" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J24" t="s">
+        <v>573</v>
+      </c>
+      <c r="K24" t="s">
+        <v>573</v>
+      </c>
+      <c r="L24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -7242,8 +7257,17 @@
       <c r="I25" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J25" t="s">
+        <v>573</v>
+      </c>
+      <c r="K25" t="s">
+        <v>573</v>
+      </c>
+      <c r="L25" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -7271,8 +7295,17 @@
       <c r="I26" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J26" t="s">
+        <v>575</v>
+      </c>
+      <c r="K26" t="s">
+        <v>575</v>
+      </c>
+      <c r="L26" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -7300,8 +7333,17 @@
       <c r="I27" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J27" t="s">
+        <v>573</v>
+      </c>
+      <c r="K27" t="s">
+        <v>573</v>
+      </c>
+      <c r="L27" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -7329,8 +7371,17 @@
       <c r="I28" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J28" t="s">
+        <v>575</v>
+      </c>
+      <c r="K28" t="s">
+        <v>575</v>
+      </c>
+      <c r="L28" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -7358,8 +7409,17 @@
       <c r="I29" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J29" t="s">
+        <v>573</v>
+      </c>
+      <c r="K29" t="s">
+        <v>573</v>
+      </c>
+      <c r="L29" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -7387,8 +7447,17 @@
       <c r="I30" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J30" t="s">
+        <v>575</v>
+      </c>
+      <c r="K30" t="s">
+        <v>575</v>
+      </c>
+      <c r="L30" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -7416,8 +7485,17 @@
       <c r="I31" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J31" t="s">
+        <v>573</v>
+      </c>
+      <c r="K31" t="s">
+        <v>573</v>
+      </c>
+      <c r="L31" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -7445,8 +7523,17 @@
       <c r="I32" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J32" t="s">
+        <v>573</v>
+      </c>
+      <c r="K32" t="s">
+        <v>573</v>
+      </c>
+      <c r="L32" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -7474,8 +7561,17 @@
       <c r="I33" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J33" t="s">
+        <v>573</v>
+      </c>
+      <c r="K33" t="s">
+        <v>573</v>
+      </c>
+      <c r="L33" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -7503,8 +7599,17 @@
       <c r="I34" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J34" t="s">
+        <v>575</v>
+      </c>
+      <c r="K34" t="s">
+        <v>575</v>
+      </c>
+      <c r="L34" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -7532,8 +7637,17 @@
       <c r="I35" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J35" t="s">
+        <v>573</v>
+      </c>
+      <c r="K35" t="s">
+        <v>573</v>
+      </c>
+      <c r="L35" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -7561,8 +7675,17 @@
       <c r="I36" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J36" t="s">
+        <v>573</v>
+      </c>
+      <c r="K36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L36" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>172</v>
       </c>
@@ -7590,8 +7713,17 @@
       <c r="I37" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J37" t="s">
+        <v>573</v>
+      </c>
+      <c r="K37" t="s">
+        <v>573</v>
+      </c>
+      <c r="L37" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>172</v>
       </c>
@@ -7619,8 +7751,17 @@
       <c r="I38" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J38" t="s">
+        <v>573</v>
+      </c>
+      <c r="K38" t="s">
+        <v>573</v>
+      </c>
+      <c r="L38" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -7648,8 +7789,14 @@
       <c r="I39" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J39" t="s">
+        <v>573</v>
+      </c>
+      <c r="K39" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -7678,7 +7825,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -7707,7 +7854,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>175</v>
       </c>
@@ -7736,7 +7883,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>175</v>
       </c>
@@ -7765,7 +7912,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>175</v>
       </c>
@@ -7794,7 +7941,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>175</v>
       </c>
@@ -7823,7 +7970,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -7852,7 +7999,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>175</v>
       </c>
@@ -7881,7 +8028,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -7910,7 +8057,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>316</v>
       </c>
@@ -7939,7 +8086,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>316</v>
       </c>
@@ -7968,7 +8115,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>316</v>
       </c>
@@ -7997,7 +8144,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>316</v>
       </c>
@@ -8026,7 +8173,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>316</v>
       </c>
@@ -8055,7 +8202,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>316</v>
       </c>
@@ -8084,7 +8231,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>316</v>
       </c>
@@ -8113,7 +8260,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>316</v>
       </c>
@@ -8142,7 +8289,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>316</v>
       </c>
@@ -8171,7 +8318,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>316</v>
       </c>
@@ -8200,7 +8347,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>316</v>
       </c>
@@ -8229,7 +8376,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>316</v>
       </c>
@@ -8258,7 +8405,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>316</v>
       </c>
@@ -8287,7 +8434,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>316</v>
       </c>
@@ -8316,7 +8463,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>316</v>
       </c>
@@ -8345,7 +8492,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>316</v>
       </c>
@@ -8374,7 +8521,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>316</v>
       </c>
@@ -8403,7 +8550,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>316</v>
       </c>
@@ -8432,7 +8579,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>316</v>
       </c>
@@ -8461,7 +8608,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>316</v>
       </c>
@@ -8490,7 +8637,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>316</v>
       </c>
@@ -8519,7 +8666,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>316</v>
       </c>
@@ -8548,7 +8695,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>316</v>
       </c>
@@ -8577,7 +8724,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>316</v>
       </c>
@@ -8606,7 +8753,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>316</v>
       </c>
@@ -8635,7 +8782,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>316</v>
       </c>
@@ -8664,7 +8811,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>316</v>
       </c>
@@ -8693,7 +8840,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>316</v>
       </c>
@@ -8722,7 +8869,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>316</v>
       </c>
@@ -8751,7 +8898,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>316</v>
       </c>
@@ -8780,7 +8927,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>346</v>
       </c>
@@ -8809,7 +8956,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>348</v>
       </c>
@@ -8838,7 +8985,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>348</v>
       </c>
@@ -8867,7 +9014,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>176</v>
       </c>
@@ -8896,7 +9043,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>176</v>
       </c>
@@ -8925,7 +9072,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>176</v>
       </c>
@@ -8954,7 +9101,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>176</v>
       </c>
@@ -8983,7 +9130,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>176</v>
       </c>
@@ -9012,7 +9159,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>176</v>
       </c>
@@ -9041,7 +9188,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>176</v>
       </c>
@@ -9070,7 +9217,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -9099,7 +9246,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>176</v>
       </c>
@@ -9128,7 +9275,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>176</v>
       </c>
@@ -9157,7 +9304,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>176</v>
       </c>
@@ -9186,7 +9333,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>176</v>
       </c>
@@ -9215,7 +9362,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>190</v>
       </c>
@@ -9244,7 +9391,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>190</v>
       </c>
@@ -9273,7 +9420,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -9302,7 +9449,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -9331,7 +9478,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>190</v>
       </c>
@@ -9360,7 +9507,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>364</v>
       </c>
@@ -9389,7 +9536,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>364</v>
       </c>
@@ -9418,7 +9565,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>364</v>
       </c>
@@ -9447,7 +9594,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>364</v>
       </c>
@@ -9476,7 +9623,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>177</v>
       </c>
@@ -9505,7 +9652,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>177</v>
       </c>
@@ -9534,7 +9681,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>177</v>
       </c>
@@ -9563,7 +9710,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>177</v>
       </c>
@@ -9592,7 +9739,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>177</v>
       </c>
@@ -9621,7 +9768,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>177</v>
       </c>
@@ -9650,7 +9797,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>177</v>
       </c>
@@ -9679,7 +9826,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>178</v>
       </c>
@@ -9708,7 +9855,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>178</v>
       </c>
@@ -9740,7 +9887,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>178</v>
       </c>
@@ -9769,7 +9916,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>178</v>
       </c>
@@ -9798,7 +9945,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>178</v>
       </c>
@@ -9827,7 +9974,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>178</v>
       </c>
@@ -9856,7 +10003,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>178</v>
       </c>
@@ -9885,7 +10032,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>380</v>
       </c>
@@ -9914,7 +10061,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>382</v>
       </c>
@@ -9943,7 +10090,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>382</v>
       </c>
@@ -9972,7 +10119,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>382</v>
       </c>
@@ -10001,7 +10148,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>382</v>
       </c>
@@ -10030,7 +10177,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>382</v>
       </c>
@@ -10059,7 +10206,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>382</v>
       </c>
@@ -10088,7 +10235,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>382</v>
       </c>
@@ -10117,7 +10264,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>382</v>
       </c>
@@ -10149,7 +10296,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>382</v>
       </c>
@@ -10178,7 +10325,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>382</v>
       </c>
@@ -10207,7 +10354,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>382</v>
       </c>
@@ -10236,7 +10383,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>382</v>
       </c>
@@ -10265,7 +10412,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>382</v>
       </c>
@@ -10294,7 +10441,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>382</v>
       </c>
@@ -10323,7 +10470,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>382</v>
       </c>
@@ -10352,7 +10499,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>382</v>
       </c>
@@ -10381,7 +10528,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>382</v>
       </c>
@@ -10410,7 +10557,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>382</v>
       </c>
@@ -10439,7 +10586,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>382</v>
       </c>
@@ -10468,7 +10615,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>382</v>
       </c>
@@ -10497,7 +10644,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>382</v>
       </c>
@@ -10526,7 +10673,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>382</v>
       </c>
@@ -10555,7 +10702,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>382</v>
       </c>
@@ -10584,7 +10731,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>382</v>
       </c>
@@ -10613,7 +10760,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>382</v>
       </c>
@@ -10642,7 +10789,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>382</v>
       </c>
@@ -10671,7 +10818,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>382</v>
       </c>
@@ -10700,7 +10847,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>382</v>
       </c>
@@ -10729,7 +10876,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>382</v>
       </c>
@@ -10758,7 +10905,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>382</v>
       </c>
@@ -10787,7 +10934,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>382</v>
       </c>
@@ -10816,7 +10963,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>382</v>
       </c>
@@ -10845,7 +10992,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>382</v>
       </c>
@@ -10874,7 +11021,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>382</v>
       </c>
@@ -10903,7 +11050,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>382</v>
       </c>
@@ -10932,7 +11079,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>382</v>
       </c>
@@ -10961,7 +11108,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>419</v>
       </c>
@@ -10990,7 +11137,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>179</v>
       </c>
@@ -11019,7 +11166,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>179</v>
       </c>
@@ -11051,7 +11198,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>179</v>
       </c>
@@ -11080,7 +11227,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>179</v>
       </c>
@@ -11109,7 +11256,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>181</v>
       </c>
@@ -11138,7 +11285,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>423</v>
       </c>
@@ -11170,7 +11317,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>423</v>
       </c>
@@ -11199,7 +11346,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -11228,7 +11375,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>182</v>
       </c>
@@ -11257,7 +11404,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>183</v>
       </c>
@@ -11286,7 +11433,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>183</v>
       </c>
@@ -11315,7 +11462,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>210</v>
       </c>
@@ -11344,7 +11491,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>210</v>
       </c>
@@ -11373,7 +11520,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>210</v>
       </c>
@@ -11402,7 +11549,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>200</v>
       </c>
@@ -11431,7 +11578,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>200</v>
       </c>
@@ -11460,7 +11607,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>200</v>
       </c>
@@ -11489,7 +11636,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>201</v>
       </c>
@@ -11518,7 +11665,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>201</v>
       </c>
@@ -11547,7 +11694,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>201</v>
       </c>
@@ -11576,7 +11723,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>201</v>
       </c>
@@ -11605,7 +11752,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>201</v>
       </c>
@@ -11634,7 +11781,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>201</v>
       </c>
@@ -11663,7 +11810,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>201</v>
       </c>
@@ -11692,7 +11839,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>201</v>
       </c>
@@ -11721,7 +11868,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>201</v>
       </c>
@@ -11750,7 +11897,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>207</v>
       </c>
@@ -11779,7 +11926,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>207</v>
       </c>
@@ -11808,7 +11955,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>207</v>
       </c>
@@ -11837,7 +11984,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>207</v>
       </c>
@@ -11866,7 +12013,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>207</v>
       </c>
@@ -11895,7 +12042,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>211</v>
       </c>
@@ -11924,7 +12071,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>211</v>
       </c>
@@ -11953,7 +12100,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>211</v>
       </c>
@@ -11982,7 +12129,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -12011,7 +12158,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>211</v>
       </c>
@@ -12040,7 +12187,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>198</v>
       </c>
@@ -12069,7 +12216,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -12098,7 +12245,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>198</v>
       </c>
@@ -12127,7 +12274,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>198</v>
       </c>
@@ -12156,7 +12303,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>199</v>
       </c>
@@ -12185,7 +12332,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -12214,7 +12361,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>212</v>
       </c>
@@ -12243,7 +12390,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>212</v>
       </c>
@@ -12272,7 +12419,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>212</v>
       </c>
@@ -12301,7 +12448,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>212</v>
       </c>
@@ -12330,7 +12477,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>212</v>
       </c>
@@ -12359,7 +12506,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>212</v>
       </c>
@@ -12388,7 +12535,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>212</v>
       </c>
@@ -12417,7 +12564,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>212</v>
       </c>
@@ -12446,7 +12593,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>212</v>
       </c>
@@ -12475,7 +12622,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>212</v>
       </c>
@@ -12504,7 +12651,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>212</v>
       </c>
@@ -12533,7 +12680,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>212</v>
       </c>
@@ -12562,7 +12709,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -12591,7 +12738,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>212</v>
       </c>
@@ -12620,7 +12767,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -12649,7 +12796,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -12681,7 +12828,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -12710,7 +12857,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -12739,7 +12886,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -12768,7 +12915,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>212</v>
       </c>
@@ -12797,7 +12944,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>212</v>
       </c>
@@ -12829,7 +12976,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>212</v>
       </c>
@@ -12861,7 +13008,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>212</v>
       </c>
@@ -12893,7 +13040,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>212</v>
       </c>
@@ -12925,7 +13072,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>212</v>
       </c>
@@ -12954,7 +13101,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>212</v>
       </c>
@@ -12983,7 +13130,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>212</v>
       </c>
@@ -13012,7 +13159,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>212</v>
       </c>
@@ -13041,7 +13188,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>212</v>
       </c>
@@ -13070,7 +13217,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>214</v>
       </c>
@@ -13099,7 +13246,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>473</v>
       </c>
@@ -13128,7 +13275,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>473</v>
       </c>
@@ -13157,7 +13304,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>216</v>
       </c>
@@ -13186,7 +13333,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>216</v>
       </c>
@@ -13215,7 +13362,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>216</v>
       </c>
@@ -13244,7 +13391,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>216</v>
       </c>
@@ -13273,7 +13420,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>216</v>
       </c>
@@ -13302,7 +13449,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>216</v>
       </c>
@@ -13334,7 +13481,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>216</v>
       </c>
@@ -13363,7 +13510,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>216</v>
       </c>
@@ -13392,7 +13539,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>216</v>
       </c>
@@ -13421,7 +13568,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>216</v>
       </c>
@@ -13450,7 +13597,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>216</v>
       </c>
@@ -13479,7 +13626,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>216</v>
       </c>
@@ -13508,7 +13655,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>216</v>
       </c>
@@ -13537,7 +13684,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>216</v>
       </c>
@@ -13566,7 +13713,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>216</v>
       </c>
@@ -13595,7 +13742,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>216</v>
       </c>
@@ -13624,7 +13771,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>216</v>
       </c>
@@ -13653,7 +13800,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>216</v>
       </c>
@@ -13682,7 +13829,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>216</v>
       </c>
@@ -13711,7 +13858,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>216</v>
       </c>
@@ -13740,7 +13887,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>216</v>
       </c>
@@ -13769,7 +13916,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>216</v>
       </c>
@@ -13798,7 +13945,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>216</v>
       </c>
@@ -13827,7 +13974,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>216</v>
       </c>
@@ -13856,7 +14003,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>216</v>
       </c>
@@ -13885,7 +14032,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>216</v>
       </c>
@@ -13914,7 +14061,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>216</v>
       </c>
@@ -13943,7 +14090,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>216</v>
       </c>
@@ -13972,7 +14119,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>218</v>
       </c>
@@ -14001,7 +14148,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>218</v>
       </c>
@@ -14030,7 +14177,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>218</v>
       </c>
@@ -14059,7 +14206,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>218</v>
       </c>
@@ -14088,7 +14235,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>219</v>
       </c>
@@ -14117,7 +14264,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>220</v>
       </c>
@@ -14146,7 +14293,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>220</v>
       </c>
@@ -14175,7 +14322,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>220</v>
       </c>
@@ -14204,7 +14351,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>220</v>
       </c>
@@ -14236,7 +14383,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>220</v>
       </c>
@@ -14265,7 +14412,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>220</v>
       </c>
@@ -14294,7 +14441,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>220</v>
       </c>
@@ -14323,7 +14470,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>220</v>
       </c>
@@ -14352,7 +14499,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>220</v>
       </c>
@@ -14384,7 +14531,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>220</v>
       </c>
@@ -14413,7 +14560,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>220</v>
       </c>
@@ -14442,7 +14589,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>220</v>
       </c>
@@ -14471,7 +14618,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>220</v>
       </c>
@@ -14500,7 +14647,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>220</v>
       </c>
@@ -14529,7 +14676,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>224</v>
       </c>
@@ -14558,7 +14705,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>224</v>
       </c>
@@ -14587,7 +14734,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>224</v>
       </c>
@@ -14616,7 +14763,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>224</v>
       </c>
@@ -14645,7 +14792,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>224</v>
       </c>
@@ -14674,7 +14821,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>224</v>
       </c>
@@ -14703,7 +14850,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>224</v>
       </c>
@@ -14732,7 +14879,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>224</v>
       </c>
@@ -14761,7 +14908,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>224</v>
       </c>
@@ -14790,7 +14937,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>224</v>
       </c>
@@ -14819,7 +14966,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>522</v>
       </c>
@@ -14848,7 +14995,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>522</v>
       </c>
@@ -14877,7 +15024,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>522</v>
       </c>
@@ -14906,7 +15053,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>522</v>
       </c>
@@ -14935,7 +15082,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>227</v>
       </c>
@@ -14964,7 +15111,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>227</v>
       </c>
@@ -14993,7 +15140,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>227</v>
       </c>
@@ -15022,7 +15169,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>227</v>
       </c>
@@ -15051,7 +15198,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>227</v>
       </c>
@@ -15080,7 +15227,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>529</v>
       </c>
@@ -15109,7 +15256,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>529</v>
       </c>
@@ -15138,7 +15285,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>230</v>
       </c>
@@ -15167,7 +15314,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>533</v>
       </c>
@@ -15196,7 +15343,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>533</v>
       </c>

--- a/JJPAC 2020 Political Contributions.xlsx
+++ b/JJPAC 2020 Political Contributions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kenvue-my.sharepoint.com/personal/HMott12_kenvue_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{7F1803A0-A14A-41A3-BDFE-E715F5C4380B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBA7B460-324E-4F78-AB4E-0FCE28BEDEFA}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{55B46E9B-D72F-46B1-ADF3-C7FBCB4A1ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{172167B3-DB9F-4B52-AC2C-FD2A28C93E81}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="4790" windowWidth="19380" windowHeight="6580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020 H1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3717" uniqueCount="579">
   <si>
     <t>State</t>
   </si>
@@ -1752,6 +1752,15 @@
   </si>
   <si>
     <t>Anti</t>
+  </si>
+  <si>
+    <t>Air National Guard - not counting as vet</t>
+  </si>
+  <si>
+    <t>Believes abortion should be rare</t>
+  </si>
+  <si>
+    <t>Air Force Reserves</t>
   </si>
 </sst>
 </file>
@@ -2444,7 +2453,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -3221,7 +3230,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>175</v>
       </c>
@@ -3608,7 +3617,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>177</v>
       </c>
@@ -3704,7 +3713,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>178</v>
       </c>
@@ -4152,7 +4161,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>201</v>
       </c>
@@ -4184,7 +4193,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>201</v>
       </c>
@@ -4408,7 +4417,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>207</v>
       </c>
@@ -4440,7 +4449,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>210</v>
       </c>
@@ -4891,7 +4900,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>216</v>
       </c>
@@ -4923,7 +4932,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>216</v>
       </c>
@@ -5083,7 +5092,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>219</v>
       </c>
@@ -5790,7 +5799,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>232</v>
       </c>
@@ -6408,9 +6417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DBD5D7-FE90-4EB9-8308-5588368B3884}">
   <dimension ref="A2:M299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6419,15 +6428,15 @@
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" style="14" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="7.69921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.09765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.59765625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -7533,7 +7542,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -7571,7 +7580,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -7609,7 +7618,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -7647,7 +7656,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -7685,7 +7694,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>172</v>
       </c>
@@ -7723,7 +7732,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>172</v>
       </c>
@@ -7761,7 +7770,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -7795,8 +7804,11 @@
       <c r="K39" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L39" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -7824,8 +7836,17 @@
       <c r="I40" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>573</v>
+      </c>
+      <c r="K40" t="s">
+        <v>573</v>
+      </c>
+      <c r="L40" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -7853,8 +7874,17 @@
       <c r="I41" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>573</v>
+      </c>
+      <c r="K41" t="s">
+        <v>573</v>
+      </c>
+      <c r="L41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>175</v>
       </c>
@@ -7882,8 +7912,17 @@
       <c r="I42" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>575</v>
+      </c>
+      <c r="K42" t="s">
+        <v>575</v>
+      </c>
+      <c r="L42" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>175</v>
       </c>
@@ -7911,8 +7950,17 @@
       <c r="I43" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>575</v>
+      </c>
+      <c r="K43" t="s">
+        <v>573</v>
+      </c>
+      <c r="L43" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>175</v>
       </c>
@@ -7940,8 +7988,17 @@
       <c r="I44" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>575</v>
+      </c>
+      <c r="K44" t="s">
+        <v>575</v>
+      </c>
+      <c r="L44" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>175</v>
       </c>
@@ -7969,8 +8026,20 @@
       <c r="I45" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J45" t="s">
+        <v>575</v>
+      </c>
+      <c r="K45" t="s">
+        <v>575</v>
+      </c>
+      <c r="L45" t="s">
+        <v>541</v>
+      </c>
+      <c r="M45" s="16" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -7998,8 +8067,17 @@
       <c r="I46" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J46" t="s">
+        <v>573</v>
+      </c>
+      <c r="K46" t="s">
+        <v>573</v>
+      </c>
+      <c r="L46" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>175</v>
       </c>
@@ -8027,8 +8105,17 @@
       <c r="I47" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J47" t="s">
+        <v>573</v>
+      </c>
+      <c r="K47" t="s">
+        <v>573</v>
+      </c>
+      <c r="L47" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -8056,8 +8143,17 @@
       <c r="I48" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" t="s">
+        <v>575</v>
+      </c>
+      <c r="K48" t="s">
+        <v>575</v>
+      </c>
+      <c r="L48" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>316</v>
       </c>
@@ -8085,8 +8181,20 @@
       <c r="I49" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" t="s">
+        <v>575</v>
+      </c>
+      <c r="K49" t="s">
+        <v>575</v>
+      </c>
+      <c r="L49" t="s">
+        <v>541</v>
+      </c>
+      <c r="M49" s="16" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>316</v>
       </c>
@@ -8114,8 +8222,20 @@
       <c r="I50" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" t="s">
+        <v>573</v>
+      </c>
+      <c r="K50" t="s">
+        <v>573</v>
+      </c>
+      <c r="L50" t="s">
+        <v>550</v>
+      </c>
+      <c r="M50" s="16" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>316</v>
       </c>
@@ -8143,8 +8263,17 @@
       <c r="I51" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" t="s">
+        <v>575</v>
+      </c>
+      <c r="K51" t="s">
+        <v>575</v>
+      </c>
+      <c r="L51" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>316</v>
       </c>
@@ -8172,8 +8301,17 @@
       <c r="I52" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" t="s">
+        <v>575</v>
+      </c>
+      <c r="K52" t="s">
+        <v>575</v>
+      </c>
+      <c r="L52" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>316</v>
       </c>
@@ -8201,8 +8339,17 @@
       <c r="I53" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" t="s">
+        <v>573</v>
+      </c>
+      <c r="K53" t="s">
+        <v>573</v>
+      </c>
+      <c r="L53" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>316</v>
       </c>
@@ -8230,8 +8377,17 @@
       <c r="I54" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" t="s">
+        <v>573</v>
+      </c>
+      <c r="K54" t="s">
+        <v>573</v>
+      </c>
+      <c r="L54" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>316</v>
       </c>
@@ -8259,8 +8415,17 @@
       <c r="I55" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" t="s">
+        <v>573</v>
+      </c>
+      <c r="K55" t="s">
+        <v>573</v>
+      </c>
+      <c r="L55" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>316</v>
       </c>
@@ -8288,8 +8453,17 @@
       <c r="I56" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" t="s">
+        <v>575</v>
+      </c>
+      <c r="K56" t="s">
+        <v>575</v>
+      </c>
+      <c r="L56" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>316</v>
       </c>
@@ -8317,8 +8491,20 @@
       <c r="I57" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" t="s">
+        <v>559</v>
+      </c>
+      <c r="K57" t="s">
+        <v>559</v>
+      </c>
+      <c r="L57" t="s">
+        <v>541</v>
+      </c>
+      <c r="M57" s="16" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>316</v>
       </c>
@@ -8346,8 +8532,17 @@
       <c r="I58" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" t="s">
+        <v>575</v>
+      </c>
+      <c r="K58" t="s">
+        <v>575</v>
+      </c>
+      <c r="L58" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>316</v>
       </c>
@@ -8376,7 +8571,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>316</v>
       </c>
@@ -8405,7 +8600,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>316</v>
       </c>
@@ -8434,7 +8629,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>316</v>
       </c>
@@ -8463,7 +8658,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>316</v>
       </c>
@@ -8492,7 +8687,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>316</v>
       </c>

--- a/JJPAC 2020 Political Contributions.xlsx
+++ b/JJPAC 2020 Political Contributions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kenvue-my.sharepoint.com/personal/HMott12_kenvue_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{55B46E9B-D72F-46B1-ADF3-C7FBCB4A1ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{172167B3-DB9F-4B52-AC2C-FD2A28C93E81}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{55B46E9B-D72F-46B1-ADF3-C7FBCB4A1ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C98D5D12-084A-4C8B-BAC2-EA285527BE94}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3717" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3741" uniqueCount="579">
   <si>
     <t>State</t>
   </si>
@@ -2453,7 +2453,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>175</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>177</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>178</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>201</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>201</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>207</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>210</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>216</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>216</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>219</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>232</v>
       </c>
@@ -6418,8 +6418,8 @@
   <dimension ref="A2:M299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -8570,6 +8570,15 @@
       <c r="I59" t="s">
         <v>541</v>
       </c>
+      <c r="J59" t="s">
+        <v>575</v>
+      </c>
+      <c r="K59" t="s">
+        <v>575</v>
+      </c>
+      <c r="L59" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -8599,6 +8608,15 @@
       <c r="I60" t="s">
         <v>541</v>
       </c>
+      <c r="J60" t="s">
+        <v>575</v>
+      </c>
+      <c r="K60" t="s">
+        <v>575</v>
+      </c>
+      <c r="L60" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -8628,6 +8646,15 @@
       <c r="I61" t="s">
         <v>541</v>
       </c>
+      <c r="J61" t="s">
+        <v>573</v>
+      </c>
+      <c r="K61" t="s">
+        <v>573</v>
+      </c>
+      <c r="L61" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -8657,6 +8684,15 @@
       <c r="I62" t="s">
         <v>541</v>
       </c>
+      <c r="J62" t="s">
+        <v>575</v>
+      </c>
+      <c r="K62" t="s">
+        <v>575</v>
+      </c>
+      <c r="L62" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -8686,6 +8722,15 @@
       <c r="I63" t="s">
         <v>541</v>
       </c>
+      <c r="J63" t="s">
+        <v>575</v>
+      </c>
+      <c r="K63" t="s">
+        <v>575</v>
+      </c>
+      <c r="L63" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -8715,8 +8760,17 @@
       <c r="I64" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64" t="s">
+        <v>575</v>
+      </c>
+      <c r="K64" t="s">
+        <v>559</v>
+      </c>
+      <c r="L64" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>316</v>
       </c>
@@ -8744,8 +8798,17 @@
       <c r="I65" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" t="s">
+        <v>573</v>
+      </c>
+      <c r="K65" t="s">
+        <v>573</v>
+      </c>
+      <c r="L65" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>316</v>
       </c>
@@ -8773,8 +8836,17 @@
       <c r="I66" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" t="s">
+        <v>575</v>
+      </c>
+      <c r="K66" t="s">
+        <v>559</v>
+      </c>
+      <c r="L66" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>316</v>
       </c>
@@ -8803,7 +8875,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>316</v>
       </c>
@@ -8832,7 +8904,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>316</v>
       </c>
@@ -8861,7 +8933,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>316</v>
       </c>
@@ -8890,7 +8962,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>316</v>
       </c>
@@ -8919,7 +8991,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>316</v>
       </c>
@@ -8948,7 +9020,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>316</v>
       </c>
@@ -8977,7 +9049,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>316</v>
       </c>
@@ -9006,7 +9078,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>316</v>
       </c>
@@ -9035,7 +9107,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>316</v>
       </c>
@@ -9064,7 +9136,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>316</v>
       </c>
@@ -9093,7 +9165,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>316</v>
       </c>
@@ -9122,7 +9194,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>346</v>
       </c>
@@ -9151,7 +9223,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>348</v>
       </c>
